--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Hobby.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Hobby.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702D88F5-85AE-4167-8BDE-8D9FE43131A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6A5E9E-C0B6-4E9A-A42C-130A26FBDFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="315" windowWidth="26130" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hobby" sheetId="1" r:id="rId1"/>
@@ -1319,327 +1319,297 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" t="s">
-        <v>106</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H7" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>289</v>
-      </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
-        <v>240</v>
+        <v>285</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>242</v>
+        <v>288</v>
+      </c>
+      <c r="G13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1659,147 +1629,147 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
         <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1819,610 +1789,640 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
         <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>289</v>
+      </c>
+      <c r="G28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" t="s">
+        <v>289</v>
+      </c>
+      <c r="G29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>287</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" t="s">
+        <v>229</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>286</v>
+      </c>
+      <c r="G46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>64</v>
       </c>
-      <c r="B27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" t="s">
         <v>203</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D48" t="s">
         <v>65</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E48" t="s">
         <v>66</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F48" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" t="s">
-        <v>230</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" t="s">
-        <v>232</v>
-      </c>
-      <c r="D40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" t="s">
-        <v>177</v>
-      </c>
-      <c r="C41" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" t="s">
-        <v>215</v>
-      </c>
-      <c r="D42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" t="s">
-        <v>217</v>
-      </c>
-      <c r="D44" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" t="s">
-        <v>219</v>
-      </c>
-      <c r="D45" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" t="s">
-        <v>220</v>
-      </c>
-      <c r="D46" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" t="s">
-        <v>138</v>
-      </c>
-      <c r="F46" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" t="s">
-        <v>221</v>
-      </c>
-      <c r="D47" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" t="s">
-        <v>222</v>
-      </c>
-      <c r="D48" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="F49" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F51" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" t="s">
-        <v>237</v>
+        <v>177</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="F55" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H55">
-      <sortCondition ref="G2"/>
+      <sortCondition ref="F2"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Hobby.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Hobby.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6A5E9E-C0B6-4E9A-A42C-130A26FBDFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE2A096-0929-4CFA-B79C-CD451442E380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hobby" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="286">
   <si>
     <t>id</t>
   </si>
@@ -583,300 +583,9 @@
     <t>EA 23.69</t>
   </si>
   <si>
-    <t xml:space="preserve">Jardinagem  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leitura  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caça  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercício  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culinária  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oração  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escrita  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pintura  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caminhada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faxina  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loteria  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gacha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diário  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">História  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blog  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dormir  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torcida  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romance  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automutilação  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drogas  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garbologia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dieta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artesanato  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compras  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beber  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fumar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jogar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meditação  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antiguidades  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fazenda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pioneirismo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesquisa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesca  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploração  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferreiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenhador  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervisão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassinato  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esbanjamento  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rambo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boatos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuidar de Alguém  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lavagem de Roupa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acariciar Coisas Fofas  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prazer Pessoal  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bicho de Estimação  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afazeres Domésticos  </t>
-  </si>
-  <si>
-    <t>Procriação  (Animais)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caça ao Tesouro  </t>
-  </si>
-  <si>
     <t>Acúmulo de Coisas</t>
   </si>
   <si>
-    <t xml:space="preserve">Instrumento Musical  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuidar de plantas, flores ou hortas, mexendo com a terra.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mergulhar em livros, revistas ou qualquer material escrito.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perseguir e capturar animais, geralmente por esporte ou sobrevivência.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praticar atividades físicas para manter a saúde e o corpo em forma.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tocar violão, piano, bateria ou qualquer instrumento.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparar alimentos, explorar receitas e criar pratos saborosos.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prática espiritual de se conectar com divindades ou forças superiores.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar textos, histórias ou anotações com criatividade ou propósito.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usar pincéis, tintas e criatividade para criar arte visual.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andar por lazer, saúde ou inspiração em ambientes variados.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relaxar e limpar o corpo com água quente ou fria.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usar a voz para cantar músicas, sozinho ou com outros.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tentar a sorte em jogos de azar, esperando grandes prêmios.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participar de sistemas de sorteio (muito comum em jogos mobile).  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escrever pensamentos, sentimentos e eventos do dia a dia.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudar ou se interessar por fatos e eventos do passado.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar conteúdo escrito online sobre assuntos de interesse pessoal.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tirar cochilos ou longos períodos de descanso para recuperar energia.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoiar com entusiasmo algo ou alguém, como em esportes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interesse e envolvimento com sentimentos amorosos.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prática autodestrutiva de causar dor a si mesmo.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de substâncias que alteram o estado mental ou físico.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atividade de limpar roupas sujas.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vasculhar lixo ou restos em busca de algo útil ou valioso.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manter controle alimentar para saúde, estética ou objetivos pessoais.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar objetos manuais como bordados, esculturas ou bijuterias.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atividade de adquirir produtos por necessidade ou prazer.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingerir bebidas alcoólicas social ou recreativamente.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praticar jogos eletrônicos, de tabuleiro ou físicos por diversão.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tocar e acariciar animais ou objetos macios.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atividades íntimas de autossatisfação.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuidar de animais como cães, gatos, pássaros, etc.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focar na respiração e mente para relaxamento e clareza mental.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interesse por objetos e itens antigos, colecionáveis.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cultivar plantações ou cuidar de animais em ambiente rural.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigar assuntos em busca de conhecimento ou soluções.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atividade de capturar peixes com vara, rede ou anzol.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventure-se por locais desconhecidos ou inexplorados.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabalhar com metais para criar armas, ferramentas ou objetos.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortar árvores e lidar com madeira como recurso.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar e cuidar da reprodução de plantas ou animais.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atuar como responsável ou líder de um grupo ou projeto.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar alvos de forma furtiva ou violenta (em contexto fictício, claro).  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estilo de combate agressivo e solitário, estilo "um exército de um homem só".  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espalhar ou escutar rumores, fofocas e histórias.  </t>
-  </si>
-  <si>
     <t>Guardar e colecionar itens, muitas vezes sem uso imediato.</t>
   </si>
   <si>
@@ -893,6 +602,285 @@
   </si>
   <si>
     <t>Imposto alto</t>
+  </si>
+  <si>
+    <t>Caminhada</t>
+  </si>
+  <si>
+    <t>Andar por lazer, saúde ou inspiração em ambientes variados.</t>
+  </si>
+  <si>
+    <t>Torcida</t>
+  </si>
+  <si>
+    <t>Apoiar com entusiasmo algo ou alguém, como em esportes.</t>
+  </si>
+  <si>
+    <t>Compras</t>
+  </si>
+  <si>
+    <t>Atividade de adquirir produtos por necessidade ou prazer.</t>
+  </si>
+  <si>
+    <t>Pesca</t>
+  </si>
+  <si>
+    <t>Atividade de capturar peixes com vara, rede ou anzol.</t>
+  </si>
+  <si>
+    <t>Lavagem de Roupa</t>
+  </si>
+  <si>
+    <t>Atividade de limpar roupas sujas.</t>
+  </si>
+  <si>
+    <t>Prazer Pessoal</t>
+  </si>
+  <si>
+    <t>Atividades íntimas de autossatisfação.</t>
+  </si>
+  <si>
+    <t>Supervisão</t>
+  </si>
+  <si>
+    <t>Atuar como responsável ou líder de um grupo ou projeto.</t>
+  </si>
+  <si>
+    <t>Exploração</t>
+  </si>
+  <si>
+    <t>Aventure-se por locais desconhecidos ou inexplorados.</t>
+  </si>
+  <si>
+    <t>Caça ao Tesouro</t>
+  </si>
+  <si>
+    <t>Lenhador</t>
+  </si>
+  <si>
+    <t>Cortar árvores e lidar com madeira como recurso.</t>
+  </si>
+  <si>
+    <t>Pioneirismo</t>
+  </si>
+  <si>
+    <t>Criar conteúdo escrito online sobre assuntos de interesse pessoal.</t>
+  </si>
+  <si>
+    <t>Procriação(Animais)</t>
+  </si>
+  <si>
+    <t>Criar e cuidar da reprodução de plantas ou animais.</t>
+  </si>
+  <si>
+    <t>Artesanato</t>
+  </si>
+  <si>
+    <t>Criar objetos manuais como bordados, esculturas ou bijuterias.</t>
+  </si>
+  <si>
+    <t>Escrita</t>
+  </si>
+  <si>
+    <t>Criar textos, histórias ou anotações com criatividade ou propósito.</t>
+  </si>
+  <si>
+    <t>Bicho de Estimação</t>
+  </si>
+  <si>
+    <t>Cuidar de animais como cães, gatos, pássaros, etc.</t>
+  </si>
+  <si>
+    <t>Jardinagem</t>
+  </si>
+  <si>
+    <t>Cuidar de plantas, flores ou hortas, mexendo com a terra.</t>
+  </si>
+  <si>
+    <t>Fazenda</t>
+  </si>
+  <si>
+    <t>Cultivar plantações ou cuidar de animais em ambiente rural.</t>
+  </si>
+  <si>
+    <t>Assassinato</t>
+  </si>
+  <si>
+    <t>Eliminar alvos de forma furtiva ou violenta (em contexto fictício, claro).</t>
+  </si>
+  <si>
+    <t>Diário</t>
+  </si>
+  <si>
+    <t>Escrever pensamentos, sentimentos e eventos do dia a dia.</t>
+  </si>
+  <si>
+    <t>Boatos</t>
+  </si>
+  <si>
+    <t>Espalhar ou escutar rumores, fofocas e histórias.</t>
+  </si>
+  <si>
+    <t>Estilo de combate agressivo e solitário, estilo "um exército de um homem só".</t>
+  </si>
+  <si>
+    <t>História</t>
+  </si>
+  <si>
+    <t>Estudar ou se interessar por fatos e eventos do passado.</t>
+  </si>
+  <si>
+    <t>Meditação</t>
+  </si>
+  <si>
+    <t>Focar na respiração e mente para relaxamento e clareza mental.</t>
+  </si>
+  <si>
+    <t>Esbanjamento</t>
+  </si>
+  <si>
+    <t>Fumar</t>
+  </si>
+  <si>
+    <t>Beber</t>
+  </si>
+  <si>
+    <t>Ingerir bebidas alcoólicas social ou recreativamente.</t>
+  </si>
+  <si>
+    <t>Interesse e envolvimento com sentimentos amorosos.</t>
+  </si>
+  <si>
+    <t>Antiguidades</t>
+  </si>
+  <si>
+    <t>Interesse por objetos e itens antigos, colecionáveis.</t>
+  </si>
+  <si>
+    <t>Pesquisa</t>
+  </si>
+  <si>
+    <t>Investigar assuntos em busca de conhecimento ou soluções.</t>
+  </si>
+  <si>
+    <t>Afazeres Domésticos</t>
+  </si>
+  <si>
+    <t>Faxina</t>
+  </si>
+  <si>
+    <t>Dieta</t>
+  </si>
+  <si>
+    <t>Manter controle alimentar para saúde, estética ou objetivos pessoais.</t>
+  </si>
+  <si>
+    <t>Leitura</t>
+  </si>
+  <si>
+    <t>Mergulhar em livros, revistas ou qualquer material escrito.</t>
+  </si>
+  <si>
+    <t>Participar de sistemas de sorteio (muito comum em jogos mobile).</t>
+  </si>
+  <si>
+    <t>Caça</t>
+  </si>
+  <si>
+    <t>Perseguir e capturar animais, geralmente por esporte ou sobrevivência.</t>
+  </si>
+  <si>
+    <t>Automutilação</t>
+  </si>
+  <si>
+    <t>Prática autodestrutiva de causar dor a si mesmo.</t>
+  </si>
+  <si>
+    <t>Oração</t>
+  </si>
+  <si>
+    <t>Prática espiritual de se conectar com divindades ou forças superiores.</t>
+  </si>
+  <si>
+    <t>Exercício</t>
+  </si>
+  <si>
+    <t>Praticar atividades físicas para manter a saúde e o corpo em forma.</t>
+  </si>
+  <si>
+    <t>Jogar</t>
+  </si>
+  <si>
+    <t>Praticar jogos eletrônicos, de tabuleiro ou físicos por diversão.</t>
+  </si>
+  <si>
+    <t>Culinária</t>
+  </si>
+  <si>
+    <t>Preparar alimentos, explorar receitas e criar pratos saborosos.</t>
+  </si>
+  <si>
+    <t>Banho</t>
+  </si>
+  <si>
+    <t>Relaxar e limpar o corpo com água quente ou fria.</t>
+  </si>
+  <si>
+    <t>Cuidar de Alguém</t>
+  </si>
+  <si>
+    <t>Loteria</t>
+  </si>
+  <si>
+    <t>Tentar a sorte em jogos de azar, esperando grandes prêmios.</t>
+  </si>
+  <si>
+    <t>Dormir</t>
+  </si>
+  <si>
+    <t>Tirar cochilos ou longos períodos de descanso para recuperar energia.</t>
+  </si>
+  <si>
+    <t>Acariciar Coisas Fofas</t>
+  </si>
+  <si>
+    <t>Tocar e acariciar animais ou objetos macios.</t>
+  </si>
+  <si>
+    <t>Instrumento Musical</t>
+  </si>
+  <si>
+    <t>Tocar violão, piano, bateria ou qualquer instrumento.</t>
+  </si>
+  <si>
+    <t>Ferreiro</t>
+  </si>
+  <si>
+    <t>Trabalhar com metais para criar armas, ferramentas ou objetos.</t>
+  </si>
+  <si>
+    <t>Canto</t>
+  </si>
+  <si>
+    <t>Usar a voz para cantar músicas, sozinho ou com outros.</t>
+  </si>
+  <si>
+    <t>Pintura</t>
+  </si>
+  <si>
+    <t>Usar pincéis, tintas e criatividade para criar arte visual.</t>
+  </si>
+  <si>
+    <t>Drogas</t>
+  </si>
+  <si>
+    <t>Uso de substâncias que alteram o estado mental ou físico.</t>
+  </si>
+  <si>
+    <t>Garbologia</t>
+  </si>
+  <si>
+    <t>Vasculhar lixo ou restos em busca de algo útil ou valioso.</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1265,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1313,7 @@
         <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -1334,7 +1322,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1345,7 +1333,7 @@
         <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
@@ -1354,7 +1342,7 @@
         <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1365,7 +1353,7 @@
         <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
         <v>92</v>
@@ -1374,7 +1362,7 @@
         <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1385,7 +1373,7 @@
         <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
         <v>137</v>
@@ -1394,7 +1382,7 @@
         <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1405,7 +1393,7 @@
         <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
@@ -1414,7 +1402,7 @@
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1425,7 +1413,7 @@
         <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
         <v>114</v>
@@ -1434,7 +1422,7 @@
         <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1445,7 +1433,7 @@
         <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
         <v>155</v>
@@ -1454,7 +1442,7 @@
         <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1465,7 +1453,7 @@
         <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
         <v>140</v>
@@ -1474,7 +1462,7 @@
         <v>141</v>
       </c>
       <c r="F10" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1485,7 +1473,7 @@
         <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
         <v>170</v>
@@ -1494,7 +1482,7 @@
         <v>171</v>
       </c>
       <c r="F11" t="s">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="G11" t="s">
         <v>172</v>
@@ -1511,7 +1499,7 @@
         <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
         <v>149</v>
@@ -1520,7 +1508,7 @@
         <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,7 +1519,7 @@
         <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
         <v>129</v>
@@ -1540,7 +1528,7 @@
         <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>288</v>
+        <v>191</v>
       </c>
       <c r="G13" t="s">
         <v>131</v>
@@ -1557,7 +1545,7 @@
         <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>62</v>
@@ -1566,7 +1554,7 @@
         <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1577,7 +1565,7 @@
         <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s">
         <v>152</v>
@@ -1586,7 +1574,7 @@
         <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1597,7 +1585,7 @@
         <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
         <v>89</v>
@@ -1606,7 +1594,7 @@
         <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1617,7 +1605,7 @@
         <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
@@ -1626,7 +1614,7 @@
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1637,7 +1625,7 @@
         <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -1646,7 +1634,7 @@
         <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1657,7 +1645,7 @@
         <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1666,7 +1654,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1677,7 +1665,7 @@
         <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s">
         <v>126</v>
@@ -1686,7 +1674,7 @@
         <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1697,7 +1685,7 @@
         <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D21" t="s">
         <v>158</v>
@@ -1706,7 +1694,7 @@
         <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1717,7 +1705,7 @@
         <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
         <v>56</v>
@@ -1726,7 +1714,7 @@
         <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1737,7 +1725,7 @@
         <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D23" t="s">
         <v>167</v>
@@ -1746,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1757,7 +1745,7 @@
         <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="D24" t="s">
         <v>164</v>
@@ -1766,7 +1754,7 @@
         <v>165</v>
       </c>
       <c r="F24" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1777,7 +1765,7 @@
         <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="D25" t="s">
         <v>59</v>
@@ -1786,7 +1774,7 @@
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1797,7 +1785,7 @@
         <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
         <v>120</v>
@@ -1806,7 +1794,7 @@
         <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1817,7 +1805,7 @@
         <v>185</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
         <v>175</v>
@@ -1826,7 +1814,7 @@
         <v>176</v>
       </c>
       <c r="F27" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1837,7 +1825,7 @@
         <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D28" t="s">
         <v>161</v>
@@ -1846,7 +1834,7 @@
         <v>162</v>
       </c>
       <c r="F28" t="s">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="G28" t="s">
         <v>100</v>
@@ -1863,7 +1851,7 @@
         <v>177</v>
       </c>
       <c r="C29" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D29" t="s">
         <v>98</v>
@@ -1872,7 +1860,7 @@
         <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="G29" t="s">
         <v>100</v>
@@ -1889,7 +1877,7 @@
         <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s">
         <v>95</v>
@@ -1898,7 +1886,7 @@
         <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1909,7 +1897,7 @@
         <v>177</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>71</v>
@@ -1918,7 +1906,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1929,7 +1917,7 @@
         <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="D32" t="s">
         <v>123</v>
@@ -1938,7 +1926,7 @@
         <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1949,7 +1937,7 @@
         <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="D33" t="s">
         <v>134</v>
@@ -1958,7 +1946,7 @@
         <v>135</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1969,7 +1957,7 @@
         <v>177</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D34" t="s">
         <v>143</v>
@@ -1978,7 +1966,7 @@
         <v>144</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>190</v>
       </c>
       <c r="G34" t="s">
         <v>44</v>
@@ -1995,7 +1983,7 @@
         <v>177</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="D35" t="s">
         <v>42</v>
@@ -2004,7 +1992,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>287</v>
+        <v>190</v>
       </c>
       <c r="G35" t="s">
         <v>44</v>
@@ -2021,7 +2009,7 @@
         <v>177</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="D36" t="s">
         <v>86</v>
@@ -2030,7 +2018,7 @@
         <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2041,7 +2029,7 @@
         <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -2050,7 +2038,7 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2061,7 +2049,7 @@
         <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
         <v>53</v>
@@ -2081,7 +2069,7 @@
         <v>177</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -2090,7 +2078,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2101,7 +2089,7 @@
         <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
         <v>74</v>
@@ -2110,7 +2098,7 @@
         <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2121,7 +2109,7 @@
         <v>177</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
@@ -2130,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2141,7 +2129,7 @@
         <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -2150,7 +2138,7 @@
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2161,7 +2149,7 @@
         <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="D43" t="s">
         <v>108</v>
@@ -2170,7 +2158,7 @@
         <v>109</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2181,7 +2169,7 @@
         <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -2190,7 +2178,7 @@
         <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2201,7 +2189,7 @@
         <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="D45" t="s">
         <v>39</v>
@@ -2210,7 +2198,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2221,7 +2209,7 @@
         <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="D46" t="s">
         <v>103</v>
@@ -2230,7 +2218,7 @@
         <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="G46" t="s">
         <v>105</v>
@@ -2247,7 +2235,7 @@
         <v>177</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -2256,7 +2244,7 @@
         <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2267,7 +2255,7 @@
         <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="D48" t="s">
         <v>65</v>
@@ -2276,7 +2264,7 @@
         <v>66</v>
       </c>
       <c r="F48" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2287,7 +2275,7 @@
         <v>177</v>
       </c>
       <c r="C49" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2296,7 +2284,7 @@
         <v>112</v>
       </c>
       <c r="F49" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2307,7 +2295,7 @@
         <v>177</v>
       </c>
       <c r="C50" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -2316,7 +2304,7 @@
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2327,7 +2315,7 @@
         <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="D51" t="s">
         <v>146</v>
@@ -2347,7 +2335,7 @@
         <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="D52" t="s">
         <v>47</v>
@@ -2356,7 +2344,7 @@
         <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2367,7 +2355,7 @@
         <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="D53" t="s">
         <v>33</v>
@@ -2376,7 +2364,7 @@
         <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2387,7 +2375,7 @@
         <v>177</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="D54" t="s">
         <v>77</v>
@@ -2396,7 +2384,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2407,7 +2395,7 @@
         <v>177</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="D55" t="s">
         <v>83</v>
@@ -2416,7 +2404,7 @@
         <v>84</v>
       </c>
       <c r="F55" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
